--- a/testing/CEDEtoFile_Manual_AccountFile_ForTestingReference.xlsx
+++ b/testing/CEDEtoFile_Manual_AccountFile_ForTestingReference.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Subhashis Barik\Xceedance\Validating CAT Models\Model Evaluation Tool\Oasis_Modex\AIR-OED\Noida\Final Files\CEDE_To_File\ToShivam_CEDEtoFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Subhashis Barik\Xceedance\Validating CAT Models\Model Evaluation Tool\Oasis_Modex\AIR-OED\Noida\Final Files\CEDE_To_File\ToShivam_CEDEtoFile\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112DB5F7-C9D4-48C2-A356-2F0D9465BA4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96CD455-1ADA-4B94-84CD-ECCC5D78209F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="873">
   <si>
     <t>ProducerName</t>
   </si>
@@ -3038,6 +3038,27 @@
   </si>
   <si>
     <t>Unique 3 columns</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of Columns in OED file should be 206 </t>
+  </si>
+  <si>
+    <t>Refer Simplitium sample OED Account File excluding FlexLocZZZ</t>
+  </si>
+  <si>
+    <t>Check that each look up values under each field match with tool output</t>
+  </si>
+  <si>
+    <t># of Records should match tLayercondition</t>
+  </si>
+  <si>
+    <t>All Finanacial  Conditions should represent in OED File</t>
+  </si>
+  <si>
+    <t>Field CB to CD; DZ to EB; FC to GX have look up values from CEDE. All values should match tool output OED file</t>
   </si>
 </sst>
 </file>
@@ -3048,7 +3069,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3159,6 +3180,15 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -3678,7 +3708,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3954,12 +3984,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4779,19 +4813,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B3A11B-4807-4199-B059-BBD0118914D2}">
-  <dimension ref="A1:GX36"/>
+  <dimension ref="A1:GX41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="F5" sqref="F5"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
@@ -4819,7 +4853,7 @@
     <col min="51" max="51" width="22.5703125" customWidth="1"/>
     <col min="52" max="64" width="3.7109375" customWidth="1"/>
     <col min="65" max="65" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="28" style="110" customWidth="1"/>
+    <col min="66" max="66" width="28" style="109" customWidth="1"/>
     <col min="67" max="67" width="13.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -7437,7 +7471,7 @@
         <f>VLOOKUP(tLayerCondtn!B2,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN8" s="111"/>
+      <c r="BN8" s="110"/>
       <c r="BO8" s="35">
         <f>VLOOKUP(tLayerCondtn!C2,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -7846,7 +7880,7 @@
         <f>VLOOKUP(tLayerCondtn!B3,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN9" s="111"/>
+      <c r="BN9" s="110"/>
       <c r="BO9" s="35">
         <f>VLOOKUP(tLayerCondtn!C3,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -8256,7 +8290,7 @@
         <f>VLOOKUP(tLayerCondtn!B4,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN10" s="111"/>
+      <c r="BN10" s="110"/>
       <c r="BO10" s="35">
         <f>VLOOKUP(tLayerCondtn!C4,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -8666,7 +8700,7 @@
         <f>VLOOKUP(tLayerCondtn!B5,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN11" s="111"/>
+      <c r="BN11" s="110"/>
       <c r="BO11" s="35">
         <f>VLOOKUP(tLayerCondtn!C5,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -9076,7 +9110,7 @@
         <f>VLOOKUP(tLayerCondtn!B6,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN12" s="111"/>
+      <c r="BN12" s="110"/>
       <c r="BO12" s="35">
         <f>VLOOKUP(tLayerCondtn!C6,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -9486,7 +9520,7 @@
         <f>VLOOKUP(tLayerCondtn!B7,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN13" s="111"/>
+      <c r="BN13" s="110"/>
       <c r="BO13" s="35">
         <f>VLOOKUP(tLayerCondtn!C7,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -9896,7 +9930,7 @@
         <f>VLOOKUP(tLayerCondtn!B8,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN14" s="111"/>
+      <c r="BN14" s="110"/>
       <c r="BO14" s="35">
         <f>VLOOKUP(tLayerCondtn!C8,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -10306,7 +10340,7 @@
         <f>VLOOKUP(tLayerCondtn!B9,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN15" s="111"/>
+      <c r="BN15" s="110"/>
       <c r="BO15" s="35">
         <f>VLOOKUP(tLayerCondtn!C9,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -10716,7 +10750,7 @@
         <f>VLOOKUP(tLayerCondtn!B10,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN16" s="111"/>
+      <c r="BN16" s="110"/>
       <c r="BO16" s="35">
         <f>VLOOKUP(tLayerCondtn!C10,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -11126,7 +11160,7 @@
         <f>VLOOKUP(tLayerCondtn!B11,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN17" s="111"/>
+      <c r="BN17" s="110"/>
       <c r="BO17" s="35">
         <f>VLOOKUP(tLayerCondtn!C11,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -11536,7 +11570,7 @@
         <f>VLOOKUP(tLayerCondtn!B12,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN18" s="111"/>
+      <c r="BN18" s="110"/>
       <c r="BO18" s="35">
         <f>VLOOKUP(tLayerCondtn!C12,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -11946,7 +11980,7 @@
         <f>VLOOKUP(tLayerCondtn!B13,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN19" s="111"/>
+      <c r="BN19" s="110"/>
       <c r="BO19" s="35">
         <f>VLOOKUP(tLayerCondtn!C13,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -12356,7 +12390,7 @@
         <f>VLOOKUP(tLayerCondtn!B14,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN20" s="111"/>
+      <c r="BN20" s="110"/>
       <c r="BO20" s="35">
         <f>VLOOKUP(tLayerCondtn!C14,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -12766,7 +12800,7 @@
         <f>VLOOKUP(tLayerCondtn!B15,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN21" s="111"/>
+      <c r="BN21" s="110"/>
       <c r="BO21" s="63">
         <f>VLOOKUP(tLayerCondtn!C15,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -13176,7 +13210,7 @@
         <f>VLOOKUP(tLayerCondtn!B16,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN22" s="111"/>
+      <c r="BN22" s="110"/>
       <c r="BO22" s="35">
         <f>VLOOKUP(tLayerCondtn!C16,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -13586,7 +13620,7 @@
         <f>VLOOKUP(tLayerCondtn!B17,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN23" s="111"/>
+      <c r="BN23" s="110"/>
       <c r="BO23" s="35">
         <f>VLOOKUP(tLayerCondtn!C17,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -13996,7 +14030,7 @@
         <f>VLOOKUP(tLayerCondtn!B18,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN24" s="111"/>
+      <c r="BN24" s="110"/>
       <c r="BO24" s="35">
         <f>VLOOKUP(tLayerCondtn!C18,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -14406,7 +14440,7 @@
         <f>VLOOKUP(tLayerCondtn!B19,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN25" s="111"/>
+      <c r="BN25" s="110"/>
       <c r="BO25" s="35">
         <f>VLOOKUP(tLayerCondtn!C19,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -14816,7 +14850,7 @@
         <f>VLOOKUP(tLayerCondtn!B20,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN26" s="111"/>
+      <c r="BN26" s="110"/>
       <c r="BO26" s="35">
         <f>VLOOKUP(tLayerCondtn!C20,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -15226,7 +15260,7 @@
         <f>VLOOKUP(tLayerCondtn!B21,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN27" s="111"/>
+      <c r="BN27" s="110"/>
       <c r="BO27" s="35">
         <f>VLOOKUP(tLayerCondtn!C21,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -15636,7 +15670,7 @@
         <f>VLOOKUP(tLayerCondtn!B22,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>1</v>
       </c>
-      <c r="BN28" s="111"/>
+      <c r="BN28" s="110"/>
       <c r="BO28" s="35">
         <f>VLOOKUP(tLayerCondtn!C22,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -16046,7 +16080,7 @@
         <f>VLOOKUP(tLayerCondtn!B23,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN29" s="111"/>
+      <c r="BN29" s="110"/>
       <c r="BO29" s="35">
         <f>VLOOKUP(tLayerCondtn!C23,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -16456,7 +16490,7 @@
         <f>VLOOKUP(tLayerCondtn!B24,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN30" s="111"/>
+      <c r="BN30" s="110"/>
       <c r="BO30" s="35">
         <f>VLOOKUP(tLayerCondtn!C24,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -16866,7 +16900,7 @@
         <f>VLOOKUP(tLayerCondtn!B25,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN31" s="111"/>
+      <c r="BN31" s="110"/>
       <c r="BO31" s="35">
         <f>VLOOKUP(tLayerCondtn!C25,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -17276,7 +17310,7 @@
         <f>VLOOKUP(tLayerCondtn!B26,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN32" s="111"/>
+      <c r="BN32" s="110"/>
       <c r="BO32" s="35">
         <f>VLOOKUP(tLayerCondtn!C26,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -17686,7 +17720,7 @@
         <f>VLOOKUP(tLayerCondtn!B27,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN33" s="111"/>
+      <c r="BN33" s="110"/>
       <c r="BO33" s="35">
         <f>VLOOKUP(tLayerCondtn!C27,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -18096,7 +18130,7 @@
         <f>VLOOKUP(tLayerCondtn!B28,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN34" s="111"/>
+      <c r="BN34" s="110"/>
       <c r="BO34" s="35">
         <f>VLOOKUP(tLayerCondtn!C28,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -18506,7 +18540,7 @@
         <f>VLOOKUP(tLayerCondtn!B29,tExpSet_tCntrct_tLayer!$A$15:$R$18,3,0)</f>
         <v>2</v>
       </c>
-      <c r="BN35" s="111"/>
+      <c r="BN35" s="110"/>
       <c r="BO35" s="35">
         <f>VLOOKUP(tLayerCondtn!C29,tExpSet_tCntrct_tLayer!$A$10:$AA$11,8,0)</f>
         <v>43466</v>
@@ -18814,9 +18848,49 @@
     <row r="36" spans="1:206" x14ac:dyDescent="0.25">
       <c r="BN36"/>
     </row>
+    <row r="37" spans="1:206" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A37" s="111" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B38" s="4">
+        <f>COUNTA(A7:GX7)</f>
+        <v>206</v>
+      </c>
+      <c r="C38" s="112" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="39" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B39" s="1" t="b">
+        <f>COUNTA(A8:A35)=COUNTA(tLayerCondtn!A2:A29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21608,7 +21682,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25020,7 +25094,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26486,7 +26560,7 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="113" t="s">
         <v>822</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -26517,7 +26591,7 @@
       <c r="F2" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="J2" s="109"/>
+      <c r="J2" s="113"/>
       <c r="L2" s="4" t="s">
         <v>829</v>
       </c>
